--- a/Budżet.xlsx
+++ b/Budżet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozum\Documents\GitHub\CFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B240E-E0B8-411D-A361-2193C9B88DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4F649-6066-4BCA-A17C-82901D4772A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Czego potrzebujemy </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Arduino (Uno ?)</t>
+  </si>
+  <si>
+    <t>Moduł Wifi</t>
   </si>
 </sst>
 </file>
@@ -58,12 +61,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,26 +119,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -411,45 +424,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:I7"/>
+  <dimension ref="F4:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(G6:G30)</f>
+        <v>73.5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>38</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -457,20 +479,40 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{B5A00635-57A3-434A-B88E-797FEE1A140F}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{4FAB2A06-5297-41C8-BCA1-B48C84F35557}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{DE9533E2-7396-49E8-AC95-8151BD0BA04D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
